--- a/assets/song-timings/Something-Conforting-Porter-Robinson-Timings.xlsx
+++ b/assets/song-timings/Something-Conforting-Porter-Robinson-Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\College\College Files\Code\Year2\CA\Sem2\OOP\MusicVisuals\assets\song-timings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61FF2ED-6C72-4276-A2FE-E9CCC5895AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5333E63-D294-4F89-955D-661E6184F6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Section Name</t>
   </si>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +502,9 @@
       <c r="C9">
         <v>1140</v>
       </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -510,6 +513,9 @@
       <c r="C10">
         <v>1198</v>
       </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -518,6 +524,9 @@
       <c r="C11">
         <v>1328</v>
       </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -529,6 +538,9 @@
       <c r="C12">
         <v>1465</v>
       </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -540,6 +552,9 @@
       <c r="C13">
         <v>1598</v>
       </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -550,6 +565,9 @@
       </c>
       <c r="C14">
         <v>1868</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
